--- a/temp/user.xlsx
+++ b/temp/user.xlsx
@@ -531,7 +531,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -578,7 +578,7 @@
         <v>123456</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>24</v>
@@ -592,7 +592,7 @@
         <v>123456</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
@@ -606,7 +606,7 @@
         <v>123456</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
@@ -620,7 +620,7 @@
         <v>123456</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
@@ -648,7 +648,7 @@
         <v>123456</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
@@ -662,7 +662,7 @@
         <v>123456</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
@@ -676,7 +676,7 @@
         <v>123456</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
@@ -690,7 +690,7 @@
         <v>123456</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
@@ -718,7 +718,7 @@
         <v>123456</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
@@ -732,7 +732,7 @@
         <v>123456</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>36</v>
@@ -746,7 +746,7 @@
         <v>123456</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>37</v>
@@ -760,7 +760,7 @@
         <v>123456</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>38</v>
@@ -788,7 +788,7 @@
         <v>123456</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>40</v>
@@ -802,7 +802,7 @@
         <v>123456</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>41</v>
@@ -816,7 +816,7 @@
         <v>123456</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>42</v>
@@ -830,7 +830,7 @@
         <v>123456</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>43</v>
